--- a/ValueSet-skin-pb-location.xlsx
+++ b/ValueSet-skin-pb-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T14:56:37+00:00</t>
+    <t>2023-04-11T17:43:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skin-pb-location.xlsx
+++ b/ValueSet-skin-pb-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T17:43:01+00:00</t>
+    <t>2023-04-11T17:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skin-pb-location.xlsx
+++ b/ValueSet-skin-pb-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T17:43:16+00:00</t>
+    <t>2023-04-11T18:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-skin-pb-location.xlsx
+++ b/ValueSet-skin-pb-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T18:06:17+00:00</t>
+    <t>2023-04-12T04:59:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
